--- a/random.xlsx
+++ b/random.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -40,64 +40,49 @@
     <t>is_closed</t>
   </si>
   <si>
-    <t>https://sun7-6.userapi.com/s/v1/ig2/yratL6HG_2Ko7uvfhk2G0Vz-ORJlU_PioBTuvF8QCrf9j1GrkrEt_Ef-ljaYcrniAXb80AGly08jP6rrZB4S5Hr0.jpg?size=50x50&amp;quality=95&amp;crop=501,48,722,722&amp;ava=1</t>
-  </si>
-  <si>
-    <t>c3bae375jZQ-gDR9U_3XX7iJfTUn_xZ-7-4aRamdnSzYEJcJwyXq_S2BZEVUq4FZgk2uu5P6fnDp7RpFp_vvRQ</t>
-  </si>
-  <si>
-    <t>id474282279</t>
-  </si>
-  <si>
-    <t>Юлия</t>
-  </si>
-  <si>
-    <t>Рогатина</t>
-  </si>
-  <si>
-    <t>https://sun7-9.userapi.com/s/v1/ig2/an9G177fMGmnAEDclc0oagTCaHuZw2z-TjFgu-v0rLtu98TTMfVAp7hrS-zEkmN56jKBw4j-fECgLuBGqOoeQTWP.jpg?size=50x50&amp;quality=95&amp;crop=155,2,303,303&amp;ava=1</t>
-  </si>
-  <si>
-    <t>a1e6ea859TkP3QW8h_d_ZiKOfP_NsG73M-tQAVT7Oay2ZbueobiSUB-LDoOC-ypiFU2lc3W1Bvk16FABWp1LxQ</t>
-  </si>
-  <si>
-    <t>nataschik</t>
-  </si>
-  <si>
-    <t>Наталья</t>
-  </si>
-  <si>
-    <t>Буйлина</t>
-  </si>
-  <si>
-    <t>https://sun7-14.userapi.com/s/v1/ig2/r34LE7djsWCJQR-qObkC65ay-3dbauDfj0ob3yw32EKhxp43m-6rDm6bnE5gZymZ9scgUKRM8d6Xwrvb8E87eV1K.jpg?size=50x50&amp;quality=96&amp;crop=475,114,838,838&amp;ava=1</t>
-  </si>
-  <si>
-    <t>5f5148deyWscliuPBk6VgkHY3bagJOmcLDcppRF2z7kGt548QT6uAgzDdbcOTp-IdxwMPh0hgZIqNCmlHxC90A</t>
-  </si>
-  <si>
-    <t>elena_pronchuk</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>Pronchuk</t>
-  </si>
-  <si>
-    <t>https://sun7-7.userapi.com/s/v1/if2/Zvg7opipNjxQIlwX-TyGZX5deYpz3oUTW8p2Sl0_aXpJex7E3HmtaHzwgCTUrhIoS3sbc-9wdeEfwHwK7ugoH4sy.jpg?size=50x50&amp;quality=96&amp;crop=682,381,1539,1539&amp;ava=1</t>
-  </si>
-  <si>
-    <t>397c623dLB01ZMNwdQ51ydEq7uEhM0wn4QtbTWEiJWhiusseWQ9LdCY2yR8jDifE5-g8b5s2JCnnCFtNb0RXAQ</t>
-  </si>
-  <si>
-    <t>id234434377</t>
-  </si>
-  <si>
-    <t>Наталия</t>
-  </si>
-  <si>
-    <t>Панфилова</t>
+    <t>https://sun7-8.userapi.com/s/v1/ig2/BXvAE4QZYABiVYNrIh0KMv-BQxxD6cUcsA51oWEKaRnNVHn6rLltbhc8nUUoie2Vyr-tFOJaDe8M_HzHdmWuFu1Y.jpg?size=50x50&amp;quality=95&amp;crop=0,146,1416,1416&amp;ava=1</t>
+  </si>
+  <si>
+    <t>344b930fQ4LDKYuTCIx-g7kv_HKC3VrIn3ixz5Ay2z_m5GK50gkk69Us1q0Mg3yBjIdylTTYMsaZe7HPnlSpVg</t>
+  </si>
+  <si>
+    <t>id170176786</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Макогон</t>
+  </si>
+  <si>
+    <t>https://sun7-8.userapi.com/s/v1/ig2/UMzxrYptgEVadyuVOrMZCIrSkfhttPXft-LfdX04S4mMn0r3b324SzntlcCfArZKrQPtPljNSThxDzL_IHM2TBMG.jpg?size=50x50&amp;quality=96&amp;crop=532,161,681,681&amp;ava=1</t>
+  </si>
+  <si>
+    <t>a4b8274cPl5vzDmur8kw8wKH_4Pw5jEQRT0nSyVModIhtUlKPkVZNyyWM5-mwjfzOS9wbXaIVQ1aMDA5KyrT</t>
+  </si>
+  <si>
+    <t>ekaterinaatanova</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Атанова</t>
+  </si>
+  <si>
+    <t>https://sun7-6.userapi.com/s/v1/if1/686TASB1eP0_aMX8C92ByNaL2PJWjPE9UABL-RWRUX90pcQ_-FUisQbdZs9Li6AN3lk7uQ8l.jpg?size=50x50&amp;quality=96&amp;crop=420,0,1920,1920&amp;ava=1</t>
+  </si>
+  <si>
+    <t>269e1110oWhSud1TmZgutN-Y3KvUcsXSzB6wGIJRMap3aagLPEXGAUW8jWKdnHrm7TBXQmB3rdzKHbAYjDdDww</t>
+  </si>
+  <si>
+    <t>remontova2013</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
+    <t>Ремонтова</t>
   </si>
 </sst>
 </file>
@@ -442,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,82 +458,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>474282279</v>
+        <v>170176786</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -571,85 +484,64 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>156545855</v>
-      </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>19258661</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="b">
+      <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="P2" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>178822010</v>
-      </c>
-      <c r="R2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>232376264</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="b">
+      <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>234434377</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="R2" r:id="rId3"/>
-    <hyperlink ref="Z2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/random.xlsx
+++ b/random.xlsx
@@ -14,95 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>id</t>
+    <t>name</t>
   </si>
   <si>
-    <t>photo</t>
+    <t>phone</t>
   </si>
   <si>
-    <t>track_code</t>
+    <t>col1</t>
   </si>
   <si>
-    <t>screen_name</t>
+    <t>TEST_valeria</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>can_access_closed</t>
-  </si>
-  <si>
-    <t>is_closed</t>
-  </si>
-  <si>
-    <t>https://sun7-8.userapi.com/s/v1/ig2/BXvAE4QZYABiVYNrIh0KMv-BQxxD6cUcsA51oWEKaRnNVHn6rLltbhc8nUUoie2Vyr-tFOJaDe8M_HzHdmWuFu1Y.jpg?size=50x50&amp;quality=95&amp;crop=0,146,1416,1416&amp;ava=1</t>
-  </si>
-  <si>
-    <t>344b930fQ4LDKYuTCIx-g7kv_HKC3VrIn3ixz5Ay2z_m5GK50gkk69Us1q0Mg3yBjIdylTTYMsaZe7HPnlSpVg</t>
-  </si>
-  <si>
-    <t>id170176786</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>Макогон</t>
-  </si>
-  <si>
-    <t>https://sun7-8.userapi.com/s/v1/ig2/UMzxrYptgEVadyuVOrMZCIrSkfhttPXft-LfdX04S4mMn0r3b324SzntlcCfArZKrQPtPljNSThxDzL_IHM2TBMG.jpg?size=50x50&amp;quality=96&amp;crop=532,161,681,681&amp;ava=1</t>
-  </si>
-  <si>
-    <t>a4b8274cPl5vzDmur8kw8wKH_4Pw5jEQRT0nSyVModIhtUlKPkVZNyyWM5-mwjfzOS9wbXaIVQ1aMDA5KyrT</t>
-  </si>
-  <si>
-    <t>ekaterinaatanova</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>Атанова</t>
-  </si>
-  <si>
-    <t>https://sun7-6.userapi.com/s/v1/if1/686TASB1eP0_aMX8C92ByNaL2PJWjPE9UABL-RWRUX90pcQ_-FUisQbdZs9Li6AN3lk7uQ8l.jpg?size=50x50&amp;quality=96&amp;crop=420,0,1920,1920&amp;ava=1</t>
-  </si>
-  <si>
-    <t>269e1110oWhSud1TmZgutN-Y3KvUcsXSzB6wGIJRMap3aagLPEXGAUW8jWKdnHrm7TBXQmB3rdzKHbAYjDdDww</t>
-  </si>
-  <si>
-    <t>remontova2013</t>
-  </si>
-  <si>
-    <t>Галина</t>
-  </si>
-  <si>
-    <t>Ремонтова</t>
+    <t>89999999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,19 +61,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,13 +360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,106 +376,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>170176786</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+    <row r="3" spans="1:3">
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>19258661</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>232376264</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+    <row r="4" spans="1:3">
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/random.xlsx
+++ b/random.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>col1</t>
   </si>
   <si>
-    <t>TEST_valeria</t>
-  </si>
-  <si>
-    <t>89999999</t>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col3new</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,24 +381,32 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="C3">
+      <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/random.xlsx
+++ b/random.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>col1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>111fdgdfg</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,28 +387,20 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/random.xlsx
+++ b/random.xlsx
@@ -14,27 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>col1</t>
+    <t>name</t>
   </si>
   <si>
-    <t>col2</t>
+    <t>phone</t>
   </si>
   <si>
-    <t>col3new</t>
+    <t>TEST_valery</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>111fdgdfg</t>
+    <t>9999999</t>
   </si>
 </sst>
 </file>
@@ -366,42 +357,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
